--- a/odds/Brown Munde 2025 Betting Odds.xlsx
+++ b/odds/Brown Munde 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>Record</t>
   </si>
@@ -45,12 +45,12 @@
     <t>Team BB</t>
   </si>
   <si>
+    <t>THE BIGMADBLUE</t>
+  </si>
+  <si>
     <t>All Barkley, No Bite</t>
   </si>
   <si>
-    <t>THE BIGMADBLUE</t>
-  </si>
-  <si>
     <t>Team Padodara</t>
   </si>
   <si>
@@ -81,19 +81,19 @@
     <t>99.7%</t>
   </si>
   <si>
-    <t>95.6%</t>
-  </si>
-  <si>
-    <t>73.2%</t>
-  </si>
-  <si>
-    <t>57.1%</t>
-  </si>
-  <si>
-    <t>54.3%</t>
-  </si>
-  <si>
-    <t>20.1%</t>
+    <t>96.4%</t>
+  </si>
+  <si>
+    <t>72.4%</t>
+  </si>
+  <si>
+    <t>57.2%</t>
+  </si>
+  <si>
+    <t>55.1%</t>
+  </si>
+  <si>
+    <t>19.2%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -105,19 +105,19 @@
     <t>-33233</t>
   </si>
   <si>
-    <t>-2173</t>
-  </si>
-  <si>
-    <t>-273</t>
-  </si>
-  <si>
-    <t>-133</t>
-  </si>
-  <si>
-    <t>-119</t>
-  </si>
-  <si>
-    <t>+398</t>
+    <t>-2678</t>
+  </si>
+  <si>
+    <t>-262</t>
+  </si>
+  <si>
+    <t>-134</t>
+  </si>
+  <si>
+    <t>-123</t>
+  </si>
+  <si>
+    <t>+421</t>
   </si>
   <si>
     <t>+∞</t>
@@ -126,52 +126,46 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>54.0%</t>
-  </si>
-  <si>
-    <t>24.3%</t>
-  </si>
-  <si>
-    <t>16.6%</t>
-  </si>
-  <si>
-    <t>5.0%</t>
+    <t>48.7%</t>
+  </si>
+  <si>
+    <t>26.0%</t>
+  </si>
+  <si>
+    <t>19.6%</t>
+  </si>
+  <si>
+    <t>5.7%</t>
+  </si>
+  <si>
+    <t>+105</t>
+  </si>
+  <si>
+    <t>+285</t>
+  </si>
+  <si>
+    <t>+410</t>
+  </si>
+  <si>
+    <t>+1654</t>
+  </si>
+  <si>
+    <t>58.5%</t>
+  </si>
+  <si>
+    <t>41.4%</t>
   </si>
   <si>
     <t>0.1%</t>
   </si>
   <si>
-    <t>-117</t>
-  </si>
-  <si>
-    <t>+312</t>
-  </si>
-  <si>
-    <t>+502</t>
-  </si>
-  <si>
-    <t>+1900</t>
+    <t>-141</t>
+  </si>
+  <si>
+    <t>+142</t>
   </si>
   <si>
     <t>+99900</t>
-  </si>
-  <si>
-    <t>57.3%</t>
-  </si>
-  <si>
-    <t>42.2%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
-  </si>
-  <si>
-    <t>-134</t>
-  </si>
-  <si>
-    <t>+137</t>
-  </si>
-  <si>
-    <t>+19900</t>
   </si>
 </sst>
 </file>
@@ -727,7 +721,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -741,7 +735,7 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -755,7 +749,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -769,7 +763,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -780,10 +774,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -830,7 +824,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -844,7 +838,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -891,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -905,24 +899,24 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -983,7 +977,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -997,7 +991,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>

--- a/odds/Brown Munde 2025 Betting Odds.xlsx
+++ b/odds/Brown Munde 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
   <si>
     <t>Record</t>
   </si>
@@ -33,13 +33,19 @@
     <t>Still Rollin'</t>
   </si>
   <si>
+    <t>NoHalfSends</t>
+  </si>
+  <si>
     <t>The Man In Jahmyrror</t>
   </si>
   <si>
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>NoHalfSends</t>
+    <t>All Barkley, No Bite</t>
+  </si>
+  <si>
+    <t>Team Padodara</t>
   </si>
   <si>
     <t>Team BB</t>
@@ -48,52 +54,43 @@
     <t>THE BIGMADBLUE</t>
   </si>
   <si>
-    <t>All Barkley, No Bite</t>
-  </si>
-  <si>
-    <t>Team Padodara</t>
-  </si>
-  <si>
     <t>Hark</t>
   </si>
   <si>
     <t>Bhals</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>3-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.7%</t>
-  </si>
-  <si>
-    <t>96.4%</t>
-  </si>
-  <si>
-    <t>72.4%</t>
-  </si>
-  <si>
-    <t>57.2%</t>
-  </si>
-  <si>
-    <t>55.1%</t>
-  </si>
-  <si>
-    <t>19.2%</t>
+    <t>76.5%</t>
+  </si>
+  <si>
+    <t>49.4%</t>
+  </si>
+  <si>
+    <t>40.3%</t>
+  </si>
+  <si>
+    <t>33.8%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -102,22 +99,16 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-33233</t>
-  </si>
-  <si>
-    <t>-2678</t>
-  </si>
-  <si>
-    <t>-262</t>
-  </si>
-  <si>
-    <t>-134</t>
-  </si>
-  <si>
-    <t>-123</t>
-  </si>
-  <si>
-    <t>+421</t>
+    <t>-326</t>
+  </si>
+  <si>
+    <t>+102</t>
+  </si>
+  <si>
+    <t>+148</t>
+  </si>
+  <si>
+    <t>+196</t>
   </si>
   <si>
     <t>+∞</t>
@@ -126,46 +117,40 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>48.7%</t>
-  </si>
-  <si>
-    <t>26.0%</t>
-  </si>
-  <si>
-    <t>19.6%</t>
-  </si>
-  <si>
-    <t>5.7%</t>
-  </si>
-  <si>
-    <t>+105</t>
-  </si>
-  <si>
-    <t>+285</t>
-  </si>
-  <si>
-    <t>+410</t>
-  </si>
-  <si>
-    <t>+1654</t>
-  </si>
-  <si>
-    <t>58.5%</t>
-  </si>
-  <si>
-    <t>41.4%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-141</t>
-  </si>
-  <si>
-    <t>+142</t>
-  </si>
-  <si>
-    <t>+99900</t>
+    <t>92.7%</t>
+  </si>
+  <si>
+    <t>3.1%</t>
+  </si>
+  <si>
+    <t>2.8%</t>
+  </si>
+  <si>
+    <t>1.4%</t>
+  </si>
+  <si>
+    <t>-1270</t>
+  </si>
+  <si>
+    <t>+3126</t>
+  </si>
+  <si>
+    <t>+3471</t>
+  </si>
+  <si>
+    <t>+7043</t>
+  </si>
+  <si>
+    <t>78.9%</t>
+  </si>
+  <si>
+    <t>21.1%</t>
+  </si>
+  <si>
+    <t>-374</t>
+  </si>
+  <si>
+    <t>+374</t>
   </si>
 </sst>
 </file>
@@ -551,10 +536,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -565,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -582,7 +567,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -590,13 +575,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -604,13 +589,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -618,13 +603,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -632,13 +617,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -646,13 +631,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -660,13 +645,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -674,13 +659,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -712,44 +697,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -757,27 +742,27 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -785,13 +770,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -799,55 +784,55 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -879,100 +864,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -980,41 +965,41 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Brown Munde 2025 Betting Odds.xlsx
+++ b/odds/Brown Munde 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>Record</t>
   </si>
@@ -51,46 +51,46 @@
     <t>Team BB</t>
   </si>
   <si>
+    <t>Hark</t>
+  </si>
+  <si>
+    <t>Bhals</t>
+  </si>
+  <si>
     <t>THE BIGMADBLUE</t>
   </si>
   <si>
-    <t>Hark</t>
-  </si>
-  <si>
-    <t>Bhals</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>3-9</t>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>5-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>76.5%</t>
-  </si>
-  <si>
-    <t>49.4%</t>
-  </si>
-  <si>
-    <t>40.3%</t>
-  </si>
-  <si>
-    <t>33.8%</t>
+    <t>88.1%</t>
+  </si>
+  <si>
+    <t>74.9%</t>
+  </si>
+  <si>
+    <t>37.0%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -99,16 +99,13 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-326</t>
-  </si>
-  <si>
-    <t>+102</t>
-  </si>
-  <si>
-    <t>+148</t>
-  </si>
-  <si>
-    <t>+196</t>
+    <t>-740</t>
+  </si>
+  <si>
+    <t>-298</t>
+  </si>
+  <si>
+    <t>+170</t>
   </si>
   <si>
     <t>+∞</t>
@@ -117,40 +114,16 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>92.7%</t>
-  </si>
-  <si>
-    <t>3.1%</t>
-  </si>
-  <si>
-    <t>2.8%</t>
-  </si>
-  <si>
-    <t>1.4%</t>
-  </si>
-  <si>
-    <t>-1270</t>
-  </si>
-  <si>
-    <t>+3126</t>
-  </si>
-  <si>
-    <t>+3471</t>
-  </si>
-  <si>
-    <t>+7043</t>
-  </si>
-  <si>
-    <t>78.9%</t>
-  </si>
-  <si>
-    <t>21.1%</t>
-  </si>
-  <si>
-    <t>-374</t>
-  </si>
-  <si>
-    <t>+374</t>
+    <t>80.0%</t>
+  </si>
+  <si>
+    <t>20.0%</t>
+  </si>
+  <si>
+    <t>-400</t>
+  </si>
+  <si>
+    <t>+400</t>
   </si>
 </sst>
 </file>
@@ -536,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -550,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -564,7 +537,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -575,10 +548,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -589,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -603,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -617,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -634,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -651,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -659,13 +632,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -703,24 +676,24 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -731,24 +704,24 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -756,32 +729,32 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -790,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -798,27 +771,27 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -826,13 +799,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -864,35 +837,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -901,49 +874,49 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -951,27 +924,27 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -979,13 +952,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -993,13 +966,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Brown Munde 2025 Betting Odds.xlsx
+++ b/odds/Brown Munde 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="26">
   <si>
     <t>Record</t>
   </si>
@@ -39,15 +39,15 @@
     <t>The Man In Jahmyrror</t>
   </si>
   <si>
+    <t>Team Padodara</t>
+  </si>
+  <si>
+    <t>All Barkley, No Bite</t>
+  </si>
+  <si>
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>All Barkley, No Bite</t>
-  </si>
-  <si>
-    <t>Team Padodara</t>
-  </si>
-  <si>
     <t>Team BB</t>
   </si>
   <si>
@@ -60,70 +60,40 @@
     <t>THE BIGMADBLUE</t>
   </si>
   <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>5-8</t>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>88.1%</t>
-  </si>
-  <si>
-    <t>74.9%</t>
-  </si>
-  <si>
-    <t>37.0%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-740</t>
-  </si>
-  <si>
-    <t>-298</t>
-  </si>
-  <si>
-    <t>+170</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>80.0%</t>
-  </si>
-  <si>
-    <t>20.0%</t>
-  </si>
-  <si>
-    <t>-400</t>
-  </si>
-  <si>
-    <t>+400</t>
   </si>
 </sst>
 </file>
@@ -512,7 +482,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -526,7 +496,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -540,7 +510,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -548,13 +518,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -562,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -576,13 +546,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -590,13 +560,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -604,13 +574,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -618,13 +588,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -632,13 +602,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -662,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -676,136 +646,136 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -840,13 +810,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -857,10 +827,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -871,10 +841,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -882,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -899,10 +869,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -910,27 +880,27 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -938,13 +908,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -952,27 +922,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
